--- a/UBER.xlsx
+++ b/UBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A63748-B369-E448-A109-DE857AFC7384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D48F3A-CE05-5B41-8813-BF9808FA278E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17200" yWindow="500" windowWidth="18640" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20880" yWindow="500" windowWidth="15380" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +221,21 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -327,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -348,8 +363,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -605,11 +623,41 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="19"/>
+                <c:pt idx="4">
+                  <c:v>-242</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-479</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-97</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-232</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>65</c:v>
@@ -1904,10 +1952,10 @@
   <dimension ref="A1:QA51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2090,23 +2138,45 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="G4">
+        <v>3248</v>
+      </c>
+      <c r="H4">
+        <v>1913</v>
+      </c>
+      <c r="I4">
+        <v>2813</v>
+      </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="K4">
+        <v>2903</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3229</v>
+      </c>
+      <c r="M4" s="3">
+        <v>4845</v>
+      </c>
+      <c r="N4" s="3">
+        <f>AB4-M4-L4-K4</f>
+        <v>6478</v>
+      </c>
+      <c r="O4" s="3">
+        <v>6854</v>
+      </c>
       <c r="P4" s="3">
         <v>8073</v>
       </c>
       <c r="Q4" s="3">
         <v>8343</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="R4" s="3">
+        <f>AC4-Q4-P4-O4</f>
+        <v>8607</v>
+      </c>
+      <c r="S4" s="3">
+        <v>8823</v>
+      </c>
       <c r="T4" s="3">
         <v>9230</v>
       </c>
@@ -2115,9 +2185,15 @@
       </c>
       <c r="V4" s="3"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
+      <c r="AA4" s="21">
+        <v>11139</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>17455</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>31877</v>
+      </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
@@ -2138,23 +2214,45 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="G5" s="3">
+        <v>1491</v>
+      </c>
+      <c r="H5" s="3">
+        <v>924</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1298</v>
+      </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="K5" s="3">
+        <v>1710</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2099</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2438</v>
+      </c>
+      <c r="N5" s="3">
+        <f>AB5-M5-L5-K5</f>
+        <v>3104</v>
+      </c>
+      <c r="O5" s="3">
+        <v>4026</v>
+      </c>
       <c r="P5" s="3">
         <v>5153</v>
       </c>
       <c r="Q5" s="3">
         <v>5173</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="R5" s="3">
+        <f>AC5-Q5-P5-O5</f>
+        <v>5307</v>
+      </c>
+      <c r="S5" s="20">
+        <v>5259</v>
+      </c>
       <c r="T5" s="3">
         <v>5515</v>
       </c>
@@ -2162,6 +2260,15 @@
         <v>5626</v>
       </c>
       <c r="V5" s="3"/>
+      <c r="AA5" s="21">
+        <v>5154</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>9351</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>19659</v>
+      </c>
     </row>
     <row r="6" spans="1:443" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
@@ -2171,15 +2278,39 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="9">
+        <f>G4-G5</f>
+        <v>1757</v>
+      </c>
+      <c r="H6" s="9">
+        <f>H4-H5</f>
+        <v>989</v>
+      </c>
+      <c r="I6" s="9">
+        <f>I4-I5</f>
+        <v>1515</v>
+      </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="K6" s="9">
+        <f>K4-K5</f>
+        <v>1193</v>
+      </c>
+      <c r="L6" s="9">
+        <f>L4-L5</f>
+        <v>1130</v>
+      </c>
+      <c r="M6" s="9">
+        <f>M4-M5</f>
+        <v>2407</v>
+      </c>
+      <c r="N6" s="9">
+        <f>N4-N5</f>
+        <v>3374</v>
+      </c>
+      <c r="O6" s="9">
+        <f>O4-O5</f>
+        <v>2828</v>
+      </c>
       <c r="P6" s="9">
         <f>P4-P5</f>
         <v>2920</v>
@@ -2188,8 +2319,14 @@
         <f>Q4-Q5</f>
         <v>3170</v>
       </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="R6" s="9">
+        <f>R4-R5</f>
+        <v>3300</v>
+      </c>
+      <c r="S6" s="9">
+        <f>S4-S5</f>
+        <v>3564</v>
+      </c>
       <c r="T6" s="9">
         <f>T4-T5</f>
         <v>3715</v>
@@ -2199,43 +2336,83 @@
         <v>3666</v>
       </c>
       <c r="V6" s="9"/>
+      <c r="AA6" s="22">
+        <f>AA4-AA5</f>
+        <v>5985</v>
+      </c>
+      <c r="AB6" s="22">
+        <f>AB4-AB5</f>
+        <v>8104</v>
+      </c>
+      <c r="AC6" s="22">
+        <f>AC4-AC5</f>
+        <v>12218</v>
+      </c>
     </row>
     <row r="7" spans="1:443" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="20" t="s">
+      <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="G7" s="3">
+        <v>503</v>
+      </c>
+      <c r="H7" s="3">
+        <v>582</v>
+      </c>
+      <c r="I7" s="3">
+        <v>365</v>
+      </c>
       <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="21">
+      <c r="K7" s="3">
+        <v>423</v>
+      </c>
+      <c r="L7" s="3">
+        <v>432</v>
+      </c>
+      <c r="M7" s="3">
+        <v>475</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" ref="N7:N10" si="1">AB7-M7-L7-K7</f>
+        <v>547</v>
+      </c>
+      <c r="O7" s="3">
+        <v>574</v>
+      </c>
+      <c r="P7" s="3">
         <v>617</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="3">
         <v>617</v>
       </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="21">
+      <c r="R7" s="3">
+        <f t="shared" ref="R7:R10" si="2">AC7-Q7-P7-O7</f>
+        <v>605</v>
+      </c>
+      <c r="S7" s="3">
+        <v>640</v>
+      </c>
+      <c r="T7" s="3">
         <v>664</v>
       </c>
-      <c r="U7" s="21">
+      <c r="U7" s="3">
         <v>683</v>
       </c>
       <c r="V7" s="9"/>
       <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
+      <c r="AA7" s="21">
+        <v>1819</v>
+      </c>
+      <c r="AB7" s="21">
+        <v>1877</v>
+      </c>
+      <c r="AC7" s="21">
+        <v>2413</v>
+      </c>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
@@ -2249,118 +2426,235 @@
       <c r="AN7" s="9"/>
     </row>
     <row r="8" spans="1:443" x14ac:dyDescent="0.2">
-      <c r="B8" s="20" t="s">
+      <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="3">
+        <v>885</v>
+      </c>
+      <c r="H8" s="3">
+        <v>736</v>
+      </c>
+      <c r="I8" s="3">
+        <v>924</v>
+      </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="K8" s="3">
+        <v>1103</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1256</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1168</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="1"/>
+        <v>1262</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1263</v>
+      </c>
       <c r="P8" s="3">
         <v>1218</v>
       </c>
       <c r="Q8" s="3">
         <v>1153</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="R8" s="3">
+        <f t="shared" si="2"/>
+        <v>1122</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1262</v>
+      </c>
       <c r="T8" s="3">
         <v>1218</v>
       </c>
       <c r="U8" s="3">
         <v>941</v>
       </c>
+      <c r="AA8" s="21">
+        <v>3583</v>
+      </c>
+      <c r="AB8" s="21">
+        <v>4789</v>
+      </c>
+      <c r="AC8" s="21">
+        <v>4756</v>
+      </c>
     </row>
     <row r="9" spans="1:443" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="3">
+        <v>645</v>
+      </c>
+      <c r="H9" s="3">
+        <v>584</v>
+      </c>
+      <c r="I9" s="3">
+        <v>493</v>
+      </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="K9" s="3">
+        <v>515</v>
+      </c>
+      <c r="L9" s="3">
+        <v>488</v>
+      </c>
+      <c r="M9" s="3">
+        <v>493</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="1"/>
+        <v>558</v>
+      </c>
+      <c r="O9" s="3">
+        <v>587</v>
+      </c>
       <c r="P9" s="3">
         <v>704</v>
       </c>
       <c r="Q9" s="3">
         <v>760</v>
       </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
+      <c r="R9" s="3">
+        <f t="shared" si="2"/>
+        <v>747</v>
+      </c>
+      <c r="S9" s="3">
+        <v>775</v>
+      </c>
       <c r="T9" s="3">
         <v>808</v>
       </c>
       <c r="U9" s="3">
         <v>797</v>
       </c>
+      <c r="AA9" s="21">
+        <v>2205</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>2054</v>
+      </c>
+      <c r="AC9" s="21">
+        <v>2798</v>
+      </c>
     </row>
     <row r="10" spans="1:443" x14ac:dyDescent="0.2">
-      <c r="B10" s="20" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="G10" s="3">
+        <v>859</v>
+      </c>
+      <c r="H10" s="3">
+        <v>565</v>
+      </c>
+      <c r="I10" s="3">
+        <v>711</v>
+      </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="K10" s="3">
+        <v>464</v>
+      </c>
+      <c r="L10" s="3">
+        <v>616</v>
+      </c>
+      <c r="M10" s="3">
+        <v>625</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="1"/>
+        <v>611</v>
+      </c>
+      <c r="O10" s="3">
+        <v>632</v>
+      </c>
       <c r="P10" s="3">
         <v>851</v>
       </c>
       <c r="Q10" s="3">
         <v>908</v>
       </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="R10" s="3">
+        <f t="shared" si="2"/>
+        <v>745</v>
+      </c>
+      <c r="S10" s="3">
+        <v>942</v>
+      </c>
       <c r="T10" s="3">
         <v>491</v>
       </c>
       <c r="U10" s="3">
         <v>646</v>
       </c>
+      <c r="AA10" s="21">
+        <v>2666</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>2316</v>
+      </c>
+      <c r="AC10" s="21">
+        <v>3136</v>
+      </c>
     </row>
     <row r="11" spans="1:443" x14ac:dyDescent="0.2">
-      <c r="B11" s="20" t="s">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="3">
+        <f>SUM(G7:G10)</f>
+        <v>2892</v>
+      </c>
+      <c r="H11" s="3">
+        <f>SUM(H7:H10)</f>
+        <v>2467</v>
+      </c>
+      <c r="I11" s="3">
+        <f>SUM(I7:I10)</f>
+        <v>2493</v>
+      </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="K11" s="3">
+        <f>SUM(K7:K10)</f>
+        <v>2505</v>
+      </c>
+      <c r="L11" s="3">
+        <f>SUM(L7:L10)</f>
+        <v>2792</v>
+      </c>
+      <c r="M11" s="3">
+        <f>SUM(M7:M10)</f>
+        <v>2761</v>
+      </c>
+      <c r="N11" s="3">
+        <f>SUM(N7:N10)</f>
+        <v>2978</v>
+      </c>
+      <c r="O11" s="3">
+        <f>SUM(O7:O10)</f>
+        <v>3056</v>
+      </c>
       <c r="P11" s="3">
         <f>SUM(P7:P10)</f>
         <v>3390</v>
@@ -2369,8 +2663,14 @@
         <f>SUM(Q7:Q10)</f>
         <v>3438</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="R11" s="3">
+        <f>SUM(R7:R10)</f>
+        <v>3219</v>
+      </c>
+      <c r="S11" s="3">
+        <f>SUM(S7:S10)</f>
+        <v>3619</v>
+      </c>
       <c r="T11" s="3">
         <f>SUM(T7:T10)</f>
         <v>3181</v>
@@ -2380,27 +2680,60 @@
         <v>3067</v>
       </c>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
+      <c r="AA11" s="21">
+        <f>SUM(AA7:AA10)</f>
+        <v>10273</v>
+      </c>
+      <c r="AB11" s="21">
+        <f>SUM(AB7:AB10)</f>
+        <v>11036</v>
+      </c>
+      <c r="AC11" s="21">
+        <f>SUM(AC7:AC10)</f>
+        <v>13103</v>
+      </c>
     </row>
     <row r="12" spans="1:443" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="3">
+        <f>G6-G11</f>
+        <v>-1135</v>
+      </c>
+      <c r="H12" s="3">
+        <f>H6-H11</f>
+        <v>-1478</v>
+      </c>
+      <c r="I12" s="3">
+        <f>I6-I11</f>
+        <v>-978</v>
+      </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="K12" s="3">
+        <f>K6-K11</f>
+        <v>-1312</v>
+      </c>
+      <c r="L12" s="3">
+        <f>L6-L11</f>
+        <v>-1662</v>
+      </c>
+      <c r="M12" s="3">
+        <f>M6-M11</f>
+        <v>-354</v>
+      </c>
+      <c r="N12" s="3">
+        <f>N6-N11</f>
+        <v>396</v>
+      </c>
+      <c r="O12" s="3">
+        <f>O6-O11</f>
+        <v>-228</v>
+      </c>
       <c r="P12" s="3">
         <f>P6-P11</f>
         <v>-470</v>
@@ -2409,8 +2742,14 @@
         <f>Q6-Q11</f>
         <v>-268</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="R12" s="3">
+        <f>R6-R11</f>
+        <v>81</v>
+      </c>
+      <c r="S12" s="3">
+        <f>S6-S11</f>
+        <v>-55</v>
+      </c>
       <c r="T12" s="3">
         <f>T6-T11</f>
         <v>534</v>
@@ -2421,36 +2760,67 @@
       </c>
       <c r="V12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
+      <c r="AA12" s="21">
+        <f>AA6-AA11</f>
+        <v>-4288</v>
+      </c>
+      <c r="AB12" s="21">
+        <f>AB6-AB11</f>
+        <v>-2932</v>
+      </c>
+      <c r="AC12" s="21">
+        <f>AC6-AC11</f>
+        <v>-885</v>
+      </c>
       <c r="AD12" s="3"/>
     </row>
     <row r="13" spans="1:443" x14ac:dyDescent="0.2">
-      <c r="B13" s="20" t="s">
+      <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="3">
+        <v>118</v>
+      </c>
+      <c r="H13" s="3">
+        <v>110</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-112</v>
+      </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="K13" s="3">
+        <v>115</v>
+      </c>
+      <c r="L13" s="3">
+        <v>115</v>
+      </c>
+      <c r="M13" s="3">
+        <v>123</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" ref="N13:N16" si="3">AB13-M13-L13-K13</f>
+        <v>130</v>
+      </c>
+      <c r="O13" s="3">
+        <v>129</v>
+      </c>
       <c r="P13" s="3">
         <v>139</v>
       </c>
       <c r="Q13" s="3">
         <v>146</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="R13" s="3">
+        <f t="shared" ref="R13:R16" si="4">AC13-Q13-P13-O13</f>
+        <v>151</v>
+      </c>
+      <c r="S13" s="3">
+        <v>168</v>
+      </c>
       <c r="T13" s="3">
         <v>144</v>
       </c>
@@ -2458,32 +2828,63 @@
         <v>166</v>
       </c>
       <c r="V13" s="3"/>
+      <c r="AA13" s="21">
+        <v>458</v>
+      </c>
+      <c r="AB13" s="21">
+        <v>483</v>
+      </c>
+      <c r="AC13" s="21">
+        <v>565</v>
+      </c>
     </row>
     <row r="14" spans="1:443" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
+      <c r="B14" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="3">
+        <v>-1795</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-44</v>
+      </c>
+      <c r="I14" s="3">
+        <v>151</v>
+      </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="K14" s="3">
+        <v>1710</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1943</v>
+      </c>
+      <c r="M14" s="3">
+        <v>-1832</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="3"/>
+        <v>1471</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-5557</v>
+      </c>
       <c r="P14" s="3">
         <v>-1704</v>
       </c>
       <c r="Q14" s="3">
         <v>-535</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="R14" s="3">
+        <f t="shared" si="4"/>
+        <v>767</v>
+      </c>
+      <c r="S14" s="3">
+        <v>292</v>
+      </c>
       <c r="T14" s="3">
         <v>273</v>
       </c>
@@ -2492,27 +2893,57 @@
       </c>
       <c r="V14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
+      <c r="AA14" s="21">
+        <v>-1625</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>3292</v>
+      </c>
+      <c r="AC14" s="21">
+        <v>-7029</v>
+      </c>
     </row>
     <row r="15" spans="1:443" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="G15" s="3">
+        <f>G12-G13+G14</f>
+        <v>-3048</v>
+      </c>
+      <c r="H15" s="3">
+        <f>H12-H13+H14</f>
+        <v>-1632</v>
+      </c>
+      <c r="I15" s="3">
+        <f>I12-I13+I14</f>
+        <v>-715</v>
+      </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="K15" s="3">
+        <f>K12-K13+K14</f>
+        <v>283</v>
+      </c>
+      <c r="L15" s="3">
+        <f>L12-L13+L14</f>
+        <v>166</v>
+      </c>
+      <c r="M15" s="3">
+        <f>M12-M13+M14</f>
+        <v>-2309</v>
+      </c>
+      <c r="N15" s="3">
+        <f>N12-N13+N14</f>
+        <v>1737</v>
+      </c>
+      <c r="O15" s="3">
+        <f>O12-O13+O14</f>
+        <v>-5914</v>
+      </c>
       <c r="P15" s="3">
         <f>P12-P13+P14</f>
         <v>-2313</v>
@@ -2521,8 +2952,14 @@
         <f>Q12-Q13+Q14</f>
         <v>-949</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="R15" s="3">
+        <f>R12-R13+R14</f>
+        <v>697</v>
+      </c>
+      <c r="S15" s="3">
+        <f>S12-S13+S14</f>
+        <v>69</v>
+      </c>
       <c r="T15" s="3">
         <f>T12-T13+T14</f>
         <v>663</v>
@@ -2532,32 +2969,66 @@
         <v>381</v>
       </c>
       <c r="V15" s="3"/>
+      <c r="AA15" s="21">
+        <f>AA12-AA13+AA14</f>
+        <v>-6371</v>
+      </c>
+      <c r="AB15" s="21">
+        <f>AB12-AB13+AB14</f>
+        <v>-123</v>
+      </c>
+      <c r="AC15" s="21">
+        <f>AC12-AC13+AC14</f>
+        <v>-8479</v>
+      </c>
     </row>
     <row r="16" spans="1:443" x14ac:dyDescent="0.2">
-      <c r="B16" s="20" t="s">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="G16" s="3">
+        <v>-242</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3">
+        <v>23</v>
+      </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="K16" s="3">
+        <v>185</v>
+      </c>
+      <c r="L16" s="3">
+        <v>-479</v>
+      </c>
+      <c r="M16" s="3">
+        <v>-101</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="3"/>
+        <v>-97</v>
+      </c>
+      <c r="O16" s="3">
+        <v>-232</v>
+      </c>
       <c r="P16" s="3">
         <v>77</v>
       </c>
       <c r="Q16" s="3">
         <v>58</v>
       </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="R16" s="3">
+        <f t="shared" si="4"/>
+        <v>-84</v>
+      </c>
+      <c r="S16" s="3">
+        <v>55</v>
+      </c>
       <c r="T16" s="3">
         <v>65</v>
       </c>
@@ -2566,9 +3037,15 @@
       </c>
       <c r="V16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
+      <c r="AA16" s="21">
+        <v>-192</v>
+      </c>
+      <c r="AB16" s="21">
+        <v>-492</v>
+      </c>
+      <c r="AC16" s="21">
+        <v>-181</v>
+      </c>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
@@ -2985,10 +3462,42 @@
       <c r="QA16" s="3"/>
     </row>
     <row r="17" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B17" s="20" t="s">
+      <c r="B17" t="s">
         <v>47</v>
       </c>
       <c r="C17"/>
+      <c r="G17" s="3">
+        <f>G15-G16</f>
+        <v>-2806</v>
+      </c>
+      <c r="H17" s="3">
+        <f>H15-H16</f>
+        <v>-1636</v>
+      </c>
+      <c r="I17" s="3">
+        <f>I15-I16</f>
+        <v>-738</v>
+      </c>
+      <c r="K17" s="3">
+        <f>K15-K16</f>
+        <v>98</v>
+      </c>
+      <c r="L17" s="3">
+        <f>L15-L16</f>
+        <v>645</v>
+      </c>
+      <c r="M17" s="3">
+        <f>M15-M16</f>
+        <v>-2208</v>
+      </c>
+      <c r="N17" s="3">
+        <f>N15-N16</f>
+        <v>1834</v>
+      </c>
+      <c r="O17" s="3">
+        <f>O15-O16</f>
+        <v>-5682</v>
+      </c>
       <c r="P17" s="3">
         <f>P15-P16</f>
         <v>-2390</v>
@@ -2997,6 +3506,14 @@
         <f>Q15-Q16</f>
         <v>-1007</v>
       </c>
+      <c r="R17" s="3">
+        <f>R15-R16</f>
+        <v>781</v>
+      </c>
+      <c r="S17" s="3">
+        <f>S15-S16</f>
+        <v>14</v>
+      </c>
       <c r="T17" s="3">
         <f>T15-T16</f>
         <v>598</v>
@@ -3004,6 +3521,18 @@
       <c r="U17" s="3">
         <f>U15-U16</f>
         <v>421</v>
+      </c>
+      <c r="AA17" s="21">
+        <f>AA15-AA16</f>
+        <v>-6179</v>
+      </c>
+      <c r="AB17" s="21">
+        <f>AB15-AB16</f>
+        <v>369</v>
+      </c>
+      <c r="AC17" s="21">
+        <f>AC15-AC16</f>
+        <v>-8298</v>
       </c>
     </row>
     <row r="18" spans="2:45" x14ac:dyDescent="0.2">
@@ -3028,9 +3557,9 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
       <c r="AD18" s="6"/>
     </row>
     <row r="19" spans="2:45" x14ac:dyDescent="0.2">
@@ -3038,6 +3567,38 @@
         <v>37</v>
       </c>
       <c r="C19"/>
+      <c r="G19" s="6">
+        <f>G17/G20</f>
+        <v>-1.6276102088167053</v>
+      </c>
+      <c r="H19" s="6">
+        <f>H17/H20</f>
+        <v>-0.94131185270425777</v>
+      </c>
+      <c r="I19" s="6">
+        <f>I17/I20</f>
+        <v>-0.42051282051282052</v>
+      </c>
+      <c r="K19" s="6">
+        <f>K17/K20</f>
+        <v>5.2744886975242197E-2</v>
+      </c>
+      <c r="L19" s="6">
+        <f>L17/L20</f>
+        <v>0.32992327365728902</v>
+      </c>
+      <c r="M19" s="6">
+        <f>M17/M20</f>
+        <v>-1.1633298208640674</v>
+      </c>
+      <c r="N19" s="6">
+        <f>N17/N20</f>
+        <v>0.9662802950474183</v>
+      </c>
+      <c r="O19" s="6">
+        <f>O17/O20</f>
+        <v>-2.9034236075625959</v>
+      </c>
       <c r="P19" s="6">
         <f>P17/P20</f>
         <v>-1.214430894308943</v>
@@ -3046,6 +3607,14 @@
         <f>Q17/Q20</f>
         <v>-0.50884284992420414</v>
       </c>
+      <c r="R19" s="6">
+        <f>R17/R20</f>
+        <v>0.39464375947448205</v>
+      </c>
+      <c r="S19" s="6">
+        <f>S17/S20</f>
+        <v>6.9686411149825784E-3</v>
+      </c>
       <c r="T19" s="6">
         <f>T17/T20</f>
         <v>0.28763828763828764</v>
@@ -3054,21 +3623,72 @@
         <f>U17/U20</f>
         <v>0.19971537001897532</v>
       </c>
+      <c r="AA19" s="24">
+        <f>AA17/AA20</f>
+        <v>-2.9312144212523719</v>
+      </c>
+      <c r="AB19" s="24">
+        <f>AB17/AB20</f>
+        <v>0.17504743833017078</v>
+      </c>
+      <c r="AC19" s="24">
+        <f>AC17/AC20</f>
+        <v>-3.9364326375711576</v>
+      </c>
     </row>
     <row r="20" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>2</v>
       </c>
+      <c r="G20">
+        <v>1724</v>
+      </c>
+      <c r="H20">
+        <v>1738</v>
+      </c>
+      <c r="I20">
+        <v>1755</v>
+      </c>
+      <c r="K20">
+        <v>1858</v>
+      </c>
+      <c r="L20">
+        <v>1955</v>
+      </c>
+      <c r="M20">
+        <v>1898</v>
+      </c>
+      <c r="N20">
+        <v>1898</v>
+      </c>
+      <c r="O20">
+        <v>1957</v>
+      </c>
       <c r="P20">
         <v>1968</v>
       </c>
       <c r="Q20">
         <v>1979</v>
       </c>
+      <c r="R20">
+        <v>1979</v>
+      </c>
+      <c r="S20">
+        <v>2009</v>
+      </c>
       <c r="T20">
         <v>2079</v>
       </c>
       <c r="U20">
+        <v>2108</v>
+      </c>
+      <c r="AA20" s="23">
+        <v>2108</v>
+      </c>
+      <c r="AB20" s="23">
+        <v>2108</v>
+      </c>
+      <c r="AC20" s="23">
         <v>2108</v>
       </c>
     </row>
